--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Calr-Scarf1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Calr-Scarf1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.30782266666666</v>
+        <v>118.8178126666667</v>
       </c>
       <c r="H2">
-        <v>138.923468</v>
+        <v>356.453438</v>
       </c>
       <c r="I2">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="J2">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.126239333333332</v>
+        <v>11.27345066666667</v>
       </c>
       <c r="N2">
-        <v>27.378718</v>
+        <v>33.820352</v>
       </c>
       <c r="O2">
-        <v>0.5276446211445039</v>
+        <v>0.7291996980773822</v>
       </c>
       <c r="P2">
-        <v>0.5276446211445039</v>
+        <v>0.7291996980773823</v>
       </c>
       <c r="Q2">
-        <v>422.6162726615581</v>
+        <v>1339.486749418909</v>
       </c>
       <c r="R2">
-        <v>3803.546453954023</v>
+        <v>12055.38074477018</v>
       </c>
       <c r="S2">
-        <v>0.02936128599173621</v>
+        <v>0.07415277178619264</v>
       </c>
       <c r="T2">
-        <v>0.02936128599173621</v>
+        <v>0.07415277178619267</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.30782266666666</v>
+        <v>118.8178126666667</v>
       </c>
       <c r="H3">
-        <v>138.923468</v>
+        <v>356.453438</v>
       </c>
       <c r="I3">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="J3">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.004982</v>
+        <v>1.215236333333333</v>
       </c>
       <c r="N3">
-        <v>9.014946</v>
+        <v>3.645709</v>
       </c>
       <c r="O3">
-        <v>0.1737366872622802</v>
+        <v>0.07860503350402723</v>
       </c>
       <c r="P3">
-        <v>0.1737366872622802</v>
+        <v>0.07860503350402724</v>
       </c>
       <c r="Q3">
-        <v>139.1541735725253</v>
+        <v>144.3917229997269</v>
       </c>
       <c r="R3">
-        <v>1252.387562152728</v>
+        <v>1299.525506997542</v>
       </c>
       <c r="S3">
-        <v>0.00966774294202009</v>
+        <v>0.007993394849227724</v>
       </c>
       <c r="T3">
-        <v>0.009667742942020092</v>
+        <v>0.007993394849227727</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.30782266666666</v>
+        <v>118.8178126666667</v>
       </c>
       <c r="H4">
-        <v>138.923468</v>
+        <v>356.453438</v>
       </c>
       <c r="I4">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="J4">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.163981666666667</v>
+        <v>0.9166103333333333</v>
       </c>
       <c r="N4">
-        <v>3.491945</v>
+        <v>2.749831</v>
       </c>
       <c r="O4">
-        <v>0.06729701502394835</v>
+        <v>0.05928903208824751</v>
       </c>
       <c r="P4">
-        <v>0.06729701502394835</v>
+        <v>0.05928903208824751</v>
       </c>
       <c r="Q4">
-        <v>53.90145660725111</v>
+        <v>108.9096348743309</v>
       </c>
       <c r="R4">
-        <v>485.1131094652599</v>
+        <v>980.186713868978</v>
       </c>
       <c r="S4">
-        <v>0.003744806305847239</v>
+        <v>0.006029138626162079</v>
       </c>
       <c r="T4">
-        <v>0.003744806305847239</v>
+        <v>0.00602913862616208</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.30782266666666</v>
+        <v>118.8178126666667</v>
       </c>
       <c r="H5">
-        <v>138.923468</v>
+        <v>356.453438</v>
       </c>
       <c r="I5">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="J5">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.838019</v>
+        <v>0.3423473333333333</v>
       </c>
       <c r="N5">
-        <v>2.514057</v>
+        <v>1.027042</v>
       </c>
       <c r="O5">
-        <v>0.04845108720213592</v>
+        <v>0.02214402488515763</v>
       </c>
       <c r="P5">
-        <v>0.04845108720213592</v>
+        <v>0.02214402488515764</v>
       </c>
       <c r="Q5">
-        <v>38.80683524329733</v>
+        <v>40.67696131893289</v>
       </c>
       <c r="R5">
-        <v>349.2615171896759</v>
+        <v>366.092651870396</v>
       </c>
       <c r="S5">
-        <v>0.002696106756223077</v>
+        <v>0.002251839692290455</v>
       </c>
       <c r="T5">
-        <v>0.002696106756223077</v>
+        <v>0.002251839692290455</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>46.30782266666666</v>
+        <v>118.8178126666667</v>
       </c>
       <c r="H6">
-        <v>138.923468</v>
+        <v>356.453438</v>
       </c>
       <c r="I6">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="J6">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.162963666666666</v>
+        <v>1.712387333333333</v>
       </c>
       <c r="N6">
-        <v>9.488890999999999</v>
+        <v>5.137162</v>
       </c>
       <c r="O6">
-        <v>0.1828705893671315</v>
+        <v>0.1107622114451854</v>
       </c>
       <c r="P6">
-        <v>0.1828705893671316</v>
+        <v>0.1107622114451855</v>
       </c>
       <c r="Q6">
-        <v>146.4699605771097</v>
+        <v>203.4621173847729</v>
       </c>
       <c r="R6">
-        <v>1318.229645193988</v>
+        <v>1831.159056462956</v>
       </c>
       <c r="S6">
-        <v>0.0101760075981429</v>
+        <v>0.01126347831668638</v>
       </c>
       <c r="T6">
-        <v>0.0101760075981429</v>
+        <v>0.01126347831668639</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>1007.44806</v>
       </c>
       <c r="I7">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358474</v>
       </c>
       <c r="J7">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358475</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.126239333333332</v>
+        <v>11.27345066666667</v>
       </c>
       <c r="N7">
-        <v>27.378718</v>
+        <v>33.820352</v>
       </c>
       <c r="O7">
-        <v>0.5276446211445039</v>
+        <v>0.7291996980773822</v>
       </c>
       <c r="P7">
-        <v>0.5276446211445039</v>
+        <v>0.7291996980773823</v>
       </c>
       <c r="Q7">
-        <v>3064.737370487454</v>
+        <v>3785.805334546347</v>
       </c>
       <c r="R7">
-        <v>27582.63633438708</v>
+        <v>34072.24801091712</v>
       </c>
       <c r="S7">
-        <v>0.2129227771040083</v>
+        <v>0.2095787503096618</v>
       </c>
       <c r="T7">
-        <v>0.2129227771040083</v>
+        <v>0.2095787503096619</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1007.44806</v>
       </c>
       <c r="I8">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358474</v>
       </c>
       <c r="J8">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358475</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.004982</v>
+        <v>1.215236333333333</v>
       </c>
       <c r="N8">
-        <v>9.014946</v>
+        <v>3.645709</v>
       </c>
       <c r="O8">
-        <v>0.1737366872622802</v>
+        <v>0.07860503350402723</v>
       </c>
       <c r="P8">
-        <v>0.1737366872622802</v>
+        <v>0.07860503350402724</v>
       </c>
       <c r="Q8">
-        <v>1009.12109541164</v>
+        <v>408.0958288193933</v>
       </c>
       <c r="R8">
-        <v>9082.089858704761</v>
+        <v>3672.86245937454</v>
       </c>
       <c r="S8">
-        <v>0.07010873693073105</v>
+        <v>0.02259181501755768</v>
       </c>
       <c r="T8">
-        <v>0.07010873693073107</v>
+        <v>0.02259181501755768</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1007.44806</v>
       </c>
       <c r="I9">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358474</v>
       </c>
       <c r="J9">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358475</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.163981666666667</v>
+        <v>0.9166103333333333</v>
       </c>
       <c r="N9">
-        <v>3.491945</v>
+        <v>2.749831</v>
       </c>
       <c r="O9">
-        <v>0.06729701502394835</v>
+        <v>0.05928903208824751</v>
       </c>
       <c r="P9">
-        <v>0.06729701502394835</v>
+        <v>0.05928903208824751</v>
       </c>
       <c r="Q9">
-        <v>390.8836906529667</v>
+        <v>307.8124340308734</v>
       </c>
       <c r="R9">
-        <v>3517.9532158767</v>
+        <v>2770.31190627786</v>
       </c>
       <c r="S9">
-        <v>0.02715666332128686</v>
+        <v>0.01704021722017464</v>
       </c>
       <c r="T9">
-        <v>0.02715666332128686</v>
+        <v>0.01704021722017464</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>1007.44806</v>
       </c>
       <c r="I10">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358474</v>
       </c>
       <c r="J10">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358475</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.838019</v>
+        <v>0.3423473333333333</v>
       </c>
       <c r="N10">
-        <v>2.514057</v>
+        <v>1.027042</v>
       </c>
       <c r="O10">
-        <v>0.04845108720213592</v>
+        <v>0.02214402488515763</v>
       </c>
       <c r="P10">
-        <v>0.04845108720213592</v>
+        <v>0.02214402488515764</v>
       </c>
       <c r="Q10">
-        <v>281.42020526438</v>
+        <v>114.9657189376133</v>
       </c>
       <c r="R10">
-        <v>2532.78184737942</v>
+        <v>1034.69147043852</v>
       </c>
       <c r="S10">
-        <v>0.01955168237744995</v>
+        <v>0.006364397948180306</v>
       </c>
       <c r="T10">
-        <v>0.01955168237744995</v>
+        <v>0.006364397948180308</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1007.44806</v>
       </c>
       <c r="I11">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358474</v>
       </c>
       <c r="J11">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358475</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.162963666666666</v>
+        <v>1.712387333333333</v>
       </c>
       <c r="N11">
-        <v>9.488890999999999</v>
+        <v>5.137162</v>
       </c>
       <c r="O11">
-        <v>0.1828705893671315</v>
+        <v>0.1107622114451854</v>
       </c>
       <c r="P11">
-        <v>0.1828705893671316</v>
+        <v>0.1107622114451855</v>
       </c>
       <c r="Q11">
-        <v>1062.173869944607</v>
+        <v>575.0470989784134</v>
       </c>
       <c r="R11">
-        <v>9559.56482950146</v>
+        <v>5175.42389080572</v>
       </c>
       <c r="S11">
-        <v>0.07379458100840332</v>
+        <v>0.03183408594027297</v>
       </c>
       <c r="T11">
-        <v>0.07379458100840333</v>
+        <v>0.03183408594027298</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>149.4350406666667</v>
+        <v>246.0383656666667</v>
       </c>
       <c r="H12">
-        <v>448.305122</v>
+        <v>738.115097</v>
       </c>
       <c r="I12">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="J12">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.126239333333332</v>
+        <v>11.27345066666667</v>
       </c>
       <c r="N12">
-        <v>27.378718</v>
+        <v>33.820352</v>
       </c>
       <c r="O12">
-        <v>0.5276446211445039</v>
+        <v>0.7291996980773822</v>
       </c>
       <c r="P12">
-        <v>0.5276446211445039</v>
+        <v>0.7291996980773823</v>
       </c>
       <c r="Q12">
-        <v>1363.779945910399</v>
+        <v>2773.70137745046</v>
       </c>
       <c r="R12">
-        <v>12274.01951319359</v>
+        <v>24963.31239705414</v>
       </c>
       <c r="S12">
-        <v>0.09474867772954094</v>
+        <v>0.1535495930320763</v>
       </c>
       <c r="T12">
-        <v>0.09474867772954096</v>
+        <v>0.1535495930320764</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>149.4350406666667</v>
+        <v>246.0383656666667</v>
       </c>
       <c r="H13">
-        <v>448.305122</v>
+        <v>738.115097</v>
       </c>
       <c r="I13">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="J13">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.004982</v>
+        <v>1.215236333333333</v>
       </c>
       <c r="N13">
-        <v>9.014946</v>
+        <v>3.645709</v>
       </c>
       <c r="O13">
-        <v>0.1737366872622802</v>
+        <v>0.07860503350402723</v>
       </c>
       <c r="P13">
-        <v>0.1737366872622802</v>
+        <v>0.07860503350402724</v>
       </c>
       <c r="Q13">
-        <v>449.0496073726013</v>
+        <v>298.9947613520858</v>
       </c>
       <c r="R13">
-        <v>4041.446466353412</v>
+        <v>2690.952852168773</v>
       </c>
       <c r="S13">
-        <v>0.03119774319978073</v>
+        <v>0.01655207885664164</v>
       </c>
       <c r="T13">
-        <v>0.03119774319978074</v>
+        <v>0.01655207885664164</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>149.4350406666667</v>
+        <v>246.0383656666667</v>
       </c>
       <c r="H14">
-        <v>448.305122</v>
+        <v>738.115097</v>
       </c>
       <c r="I14">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="J14">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.163981666666667</v>
+        <v>0.9166103333333333</v>
       </c>
       <c r="N14">
-        <v>3.491945</v>
+        <v>2.749831</v>
       </c>
       <c r="O14">
-        <v>0.06729701502394835</v>
+        <v>0.05928903208824751</v>
       </c>
       <c r="P14">
-        <v>0.06729701502394835</v>
+        <v>0.05928903208824751</v>
       </c>
       <c r="Q14">
-        <v>173.9396476935878</v>
+        <v>225.5213083665119</v>
       </c>
       <c r="R14">
-        <v>1565.45682924229</v>
+        <v>2029.691775298607</v>
       </c>
       <c r="S14">
-        <v>0.01208446543969962</v>
+        <v>0.01248465512591316</v>
       </c>
       <c r="T14">
-        <v>0.01208446543969962</v>
+        <v>0.01248465512591316</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>149.4350406666667</v>
+        <v>246.0383656666667</v>
       </c>
       <c r="H15">
-        <v>448.305122</v>
+        <v>738.115097</v>
       </c>
       <c r="I15">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="J15">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.838019</v>
+        <v>0.3423473333333333</v>
       </c>
       <c r="N15">
-        <v>2.514057</v>
+        <v>1.027042</v>
       </c>
       <c r="O15">
-        <v>0.04845108720213592</v>
+        <v>0.02214402488515763</v>
       </c>
       <c r="P15">
-        <v>0.04845108720213592</v>
+        <v>0.02214402488515764</v>
       </c>
       <c r="Q15">
-        <v>125.2294033444393</v>
+        <v>84.2305783836749</v>
       </c>
       <c r="R15">
-        <v>1127.064630099954</v>
+        <v>758.075205453074</v>
       </c>
       <c r="S15">
-        <v>0.008700318856664382</v>
+        <v>0.004662928438085142</v>
       </c>
       <c r="T15">
-        <v>0.008700318856664382</v>
+        <v>0.004662928438085144</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>149.4350406666667</v>
+        <v>246.0383656666667</v>
       </c>
       <c r="H16">
-        <v>448.305122</v>
+        <v>738.115097</v>
       </c>
       <c r="I16">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="J16">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.162963666666666</v>
+        <v>1.712387333333333</v>
       </c>
       <c r="N16">
-        <v>9.488890999999999</v>
+        <v>5.137162</v>
       </c>
       <c r="O16">
-        <v>0.1828705893671315</v>
+        <v>0.1107622114451854</v>
       </c>
       <c r="P16">
-        <v>0.1828705893671316</v>
+        <v>0.1107622114451855</v>
       </c>
       <c r="Q16">
-        <v>472.6576041555223</v>
+        <v>421.3129808816349</v>
       </c>
       <c r="R16">
-        <v>4253.918437399701</v>
+        <v>3791.816827934714</v>
       </c>
       <c r="S16">
-        <v>0.03283790991856308</v>
+        <v>0.02332350457026134</v>
       </c>
       <c r="T16">
-        <v>0.03283790991856309</v>
+        <v>0.02332350457026134</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>59.73425133333333</v>
+        <v>65.81257000000001</v>
       </c>
       <c r="H17">
-        <v>179.202754</v>
+        <v>197.43771</v>
       </c>
       <c r="I17">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="J17">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.126239333333332</v>
+        <v>11.27345066666667</v>
       </c>
       <c r="N17">
-        <v>27.378718</v>
+        <v>33.820352</v>
       </c>
       <c r="O17">
-        <v>0.5276446211445039</v>
+        <v>0.7291996980773822</v>
       </c>
       <c r="P17">
-        <v>0.5276446211445039</v>
+        <v>0.7291996980773823</v>
       </c>
       <c r="Q17">
-        <v>545.1490740654857</v>
+        <v>741.9347611415468</v>
       </c>
       <c r="R17">
-        <v>4906.341666589371</v>
+        <v>6677.41285027392</v>
       </c>
       <c r="S17">
-        <v>0.03787425829810663</v>
+        <v>0.04107283558201643</v>
       </c>
       <c r="T17">
-        <v>0.03787425829810663</v>
+        <v>0.04107283558201644</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>59.73425133333333</v>
+        <v>65.81257000000001</v>
       </c>
       <c r="H18">
-        <v>179.202754</v>
+        <v>197.43771</v>
       </c>
       <c r="I18">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="J18">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.004982</v>
+        <v>1.215236333333333</v>
       </c>
       <c r="N18">
-        <v>9.014946</v>
+        <v>3.645709</v>
       </c>
       <c r="O18">
-        <v>0.1737366872622802</v>
+        <v>0.07860503350402723</v>
       </c>
       <c r="P18">
-        <v>0.1737366872622802</v>
+        <v>0.07860503350402724</v>
       </c>
       <c r="Q18">
-        <v>179.5003500401427</v>
+        <v>79.97782625404334</v>
       </c>
       <c r="R18">
-        <v>1615.503150361284</v>
+        <v>719.80043628639</v>
       </c>
       <c r="S18">
-        <v>0.01247079550428487</v>
+        <v>0.004427499936632165</v>
       </c>
       <c r="T18">
-        <v>0.01247079550428487</v>
+        <v>0.004427499936632166</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>59.73425133333333</v>
+        <v>65.81257000000001</v>
       </c>
       <c r="H19">
-        <v>179.202754</v>
+        <v>197.43771</v>
       </c>
       <c r="I19">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="J19">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.163981666666667</v>
+        <v>0.9166103333333333</v>
       </c>
       <c r="N19">
-        <v>3.491945</v>
+        <v>2.749831</v>
       </c>
       <c r="O19">
-        <v>0.06729701502394835</v>
+        <v>0.05928903208824751</v>
       </c>
       <c r="P19">
-        <v>0.06729701502394835</v>
+        <v>0.05928903208824751</v>
       </c>
       <c r="Q19">
-        <v>69.5295734240589</v>
+        <v>60.32448172522334</v>
       </c>
       <c r="R19">
-        <v>625.7661608165299</v>
+        <v>542.92033552701</v>
       </c>
       <c r="S19">
-        <v>0.004830570477871972</v>
+        <v>0.003339508605390382</v>
       </c>
       <c r="T19">
-        <v>0.004830570477871972</v>
+        <v>0.003339508605390383</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>59.73425133333333</v>
+        <v>65.81257000000001</v>
       </c>
       <c r="H20">
-        <v>179.202754</v>
+        <v>197.43771</v>
       </c>
       <c r="I20">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="J20">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.838019</v>
+        <v>0.3423473333333333</v>
       </c>
       <c r="N20">
-        <v>2.514057</v>
+        <v>1.027042</v>
       </c>
       <c r="O20">
-        <v>0.04845108720213592</v>
+        <v>0.02214402488515763</v>
       </c>
       <c r="P20">
-        <v>0.04845108720213592</v>
+        <v>0.02214402488515764</v>
       </c>
       <c r="Q20">
-        <v>50.05843756810867</v>
+        <v>22.53075783931333</v>
       </c>
       <c r="R20">
-        <v>450.5259381129779</v>
+        <v>202.77682055382</v>
       </c>
       <c r="S20">
-        <v>0.00347781237215574</v>
+        <v>0.001247282322839967</v>
       </c>
       <c r="T20">
-        <v>0.00347781237215574</v>
+        <v>0.001247282322839967</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>59.73425133333333</v>
+        <v>65.81257000000001</v>
       </c>
       <c r="H21">
-        <v>179.202754</v>
+        <v>197.43771</v>
       </c>
       <c r="I21">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="J21">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.162963666666666</v>
+        <v>1.712387333333333</v>
       </c>
       <c r="N21">
-        <v>9.488890999999999</v>
+        <v>5.137162</v>
       </c>
       <c r="O21">
-        <v>0.1828705893671315</v>
+        <v>0.1107622114451854</v>
       </c>
       <c r="P21">
-        <v>0.1828705893671316</v>
+        <v>0.1107622114451855</v>
       </c>
       <c r="Q21">
-        <v>188.9372666228682</v>
+        <v>112.6966112421133</v>
       </c>
       <c r="R21">
-        <v>1700.435399605814</v>
+        <v>1014.26950117902</v>
       </c>
       <c r="S21">
-        <v>0.01312642574048132</v>
+        <v>0.006238782203809784</v>
       </c>
       <c r="T21">
-        <v>0.01312642574048132</v>
+        <v>0.006238782203809787</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>108.3486913333333</v>
+        <v>128.795339</v>
       </c>
       <c r="H22">
-        <v>325.046074</v>
+        <v>386.386017</v>
       </c>
       <c r="I22">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="J22">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.126239333333332</v>
+        <v>11.27345066666667</v>
       </c>
       <c r="N22">
-        <v>27.378718</v>
+        <v>33.820352</v>
       </c>
       <c r="O22">
-        <v>0.5276446211445039</v>
+        <v>0.7291996980773822</v>
       </c>
       <c r="P22">
-        <v>0.5276446211445039</v>
+        <v>0.7291996980773823</v>
       </c>
       <c r="Q22">
-        <v>988.8160885614589</v>
+        <v>1451.96790031311</v>
       </c>
       <c r="R22">
-        <v>8899.344797053131</v>
+        <v>13067.71110281798</v>
       </c>
       <c r="S22">
-        <v>0.06869804559734322</v>
+        <v>0.08037962630052387</v>
       </c>
       <c r="T22">
-        <v>0.06869804559734322</v>
+        <v>0.08037962630052389</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>108.3486913333333</v>
+        <v>128.795339</v>
       </c>
       <c r="H23">
-        <v>325.046074</v>
+        <v>386.386017</v>
       </c>
       <c r="I23">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="J23">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.004982</v>
+        <v>1.215236333333333</v>
       </c>
       <c r="N23">
-        <v>9.014946</v>
+        <v>3.645709</v>
       </c>
       <c r="O23">
-        <v>0.1737366872622802</v>
+        <v>0.07860503350402723</v>
       </c>
       <c r="P23">
-        <v>0.1737366872622802</v>
+        <v>0.07860503350402724</v>
       </c>
       <c r="Q23">
-        <v>325.5858671802226</v>
+        <v>156.5167755167837</v>
       </c>
       <c r="R23">
-        <v>2930.272804622004</v>
+        <v>1408.650979651053</v>
       </c>
       <c r="S23">
-        <v>0.02262009387603857</v>
+        <v>0.008664626761438098</v>
       </c>
       <c r="T23">
-        <v>0.02262009387603857</v>
+        <v>0.0086646267614381</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>108.3486913333333</v>
+        <v>128.795339</v>
       </c>
       <c r="H24">
-        <v>325.046074</v>
+        <v>386.386017</v>
       </c>
       <c r="I24">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="J24">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.163981666666667</v>
+        <v>0.9166103333333333</v>
       </c>
       <c r="N24">
-        <v>3.491945</v>
+        <v>2.749831</v>
       </c>
       <c r="O24">
-        <v>0.06729701502394835</v>
+        <v>0.05928903208824751</v>
       </c>
       <c r="P24">
-        <v>0.06729701502394835</v>
+        <v>0.05928903208824751</v>
       </c>
       <c r="Q24">
-        <v>126.1158903193255</v>
+        <v>118.0551386125697</v>
       </c>
       <c r="R24">
-        <v>1135.04301287393</v>
+        <v>1062.496247513127</v>
       </c>
       <c r="S24">
-        <v>0.008761907582137874</v>
+        <v>0.006535425419865407</v>
       </c>
       <c r="T24">
-        <v>0.008761907582137874</v>
+        <v>0.006535425419865408</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>108.3486913333333</v>
+        <v>128.795339</v>
       </c>
       <c r="H25">
-        <v>325.046074</v>
+        <v>386.386017</v>
       </c>
       <c r="I25">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="J25">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.838019</v>
+        <v>0.3423473333333333</v>
       </c>
       <c r="N25">
-        <v>2.514057</v>
+        <v>1.027042</v>
       </c>
       <c r="O25">
-        <v>0.04845108720213592</v>
+        <v>0.02214402488515763</v>
       </c>
       <c r="P25">
-        <v>0.04845108720213592</v>
+        <v>0.02214402488515764</v>
       </c>
       <c r="Q25">
-        <v>90.79826196246866</v>
+        <v>44.09274085241267</v>
       </c>
       <c r="R25">
-        <v>817.1843576622178</v>
+        <v>396.834667671714</v>
       </c>
       <c r="S25">
-        <v>0.006308213643177884</v>
+        <v>0.002440934149796627</v>
       </c>
       <c r="T25">
-        <v>0.006308213643177884</v>
+        <v>0.002440934149796627</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>108.3486913333333</v>
+        <v>128.795339</v>
       </c>
       <c r="H26">
-        <v>325.046074</v>
+        <v>386.386017</v>
       </c>
       <c r="I26">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="J26">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.162963666666666</v>
+        <v>1.712387333333333</v>
       </c>
       <c r="N26">
-        <v>9.488890999999999</v>
+        <v>5.137162</v>
       </c>
       <c r="O26">
-        <v>0.1828705893671315</v>
+        <v>0.1107622114451854</v>
       </c>
       <c r="P26">
-        <v>0.1828705893671316</v>
+        <v>0.1107622114451855</v>
       </c>
       <c r="Q26">
-        <v>342.7029740182148</v>
+        <v>220.5475070959727</v>
       </c>
       <c r="R26">
-        <v>3084.326766163933</v>
+        <v>1984.927563863754</v>
       </c>
       <c r="S26">
-        <v>0.02380930570183088</v>
+        <v>0.012209309997875</v>
       </c>
       <c r="T26">
-        <v>0.02380930570183088</v>
+        <v>0.012209309997875</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>132.544937</v>
+        <v>273.1443633333333</v>
       </c>
       <c r="H27">
-        <v>397.634811</v>
+        <v>819.43309</v>
       </c>
       <c r="I27">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="J27">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>9.126239333333332</v>
+        <v>11.27345066666667</v>
       </c>
       <c r="N27">
-        <v>27.378718</v>
+        <v>33.820352</v>
       </c>
       <c r="O27">
-        <v>0.5276446211445039</v>
+        <v>0.7291996980773822</v>
       </c>
       <c r="P27">
-        <v>0.5276446211445039</v>
+        <v>0.7291996980773823</v>
       </c>
       <c r="Q27">
-        <v>1209.636817483589</v>
+        <v>3079.279504916409</v>
       </c>
       <c r="R27">
-        <v>10886.7313573523</v>
+        <v>27713.51554424768</v>
       </c>
       <c r="S27">
-        <v>0.08403957642376865</v>
+        <v>0.170466121066911</v>
       </c>
       <c r="T27">
-        <v>0.08403957642376865</v>
+        <v>0.1704661210669111</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>132.544937</v>
+        <v>273.1443633333333</v>
       </c>
       <c r="H28">
-        <v>397.634811</v>
+        <v>819.43309</v>
       </c>
       <c r="I28">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="J28">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>3.004982</v>
+        <v>1.215236333333333</v>
       </c>
       <c r="N28">
-        <v>9.014946</v>
+        <v>3.645709</v>
       </c>
       <c r="O28">
-        <v>0.1737366872622802</v>
+        <v>0.07860503350402723</v>
       </c>
       <c r="P28">
-        <v>0.1737366872622802</v>
+        <v>0.07860503350402724</v>
       </c>
       <c r="Q28">
-        <v>398.295149876134</v>
+        <v>331.9349545678677</v>
       </c>
       <c r="R28">
-        <v>3584.656348885206</v>
+        <v>2987.41459111081</v>
       </c>
       <c r="S28">
-        <v>0.02767157480942488</v>
+        <v>0.01837561808252992</v>
       </c>
       <c r="T28">
-        <v>0.02767157480942488</v>
+        <v>0.01837561808252992</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>132.544937</v>
+        <v>273.1443633333333</v>
       </c>
       <c r="H29">
-        <v>397.634811</v>
+        <v>819.43309</v>
       </c>
       <c r="I29">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="J29">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.163981666666667</v>
+        <v>0.9166103333333333</v>
       </c>
       <c r="N29">
-        <v>3.491945</v>
+        <v>2.749831</v>
       </c>
       <c r="O29">
-        <v>0.06729701502394835</v>
+        <v>0.05928903208824751</v>
       </c>
       <c r="P29">
-        <v>0.06729701502394835</v>
+        <v>0.05928903208824751</v>
       </c>
       <c r="Q29">
-        <v>154.2798766774883</v>
+        <v>250.3669459230878</v>
       </c>
       <c r="R29">
-        <v>1388.518890097395</v>
+        <v>2253.30251330779</v>
       </c>
       <c r="S29">
-        <v>0.01071860189710478</v>
+        <v>0.01386008709074184</v>
       </c>
       <c r="T29">
-        <v>0.01071860189710478</v>
+        <v>0.01386008709074184</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>132.544937</v>
+        <v>273.1443633333333</v>
       </c>
       <c r="H30">
-        <v>397.634811</v>
+        <v>819.43309</v>
       </c>
       <c r="I30">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="J30">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.838019</v>
+        <v>0.3423473333333333</v>
       </c>
       <c r="N30">
-        <v>2.514057</v>
+        <v>1.027042</v>
       </c>
       <c r="O30">
-        <v>0.04845108720213592</v>
+        <v>0.02214402488515763</v>
       </c>
       <c r="P30">
-        <v>0.04845108720213592</v>
+        <v>0.02214402488515764</v>
       </c>
       <c r="Q30">
-        <v>111.075175559803</v>
+        <v>93.51024440219778</v>
       </c>
       <c r="R30">
-        <v>999.6765800382269</v>
+        <v>841.59219961978</v>
       </c>
       <c r="S30">
-        <v>0.00771695319646488</v>
+        <v>0.005176642333965135</v>
       </c>
       <c r="T30">
-        <v>0.00771695319646488</v>
+        <v>0.005176642333965136</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>132.544937</v>
+        <v>273.1443633333333</v>
       </c>
       <c r="H31">
-        <v>397.634811</v>
+        <v>819.43309</v>
       </c>
       <c r="I31">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="J31">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>3.162963666666666</v>
+        <v>1.712387333333333</v>
       </c>
       <c r="N31">
-        <v>9.488890999999999</v>
+        <v>5.137162</v>
       </c>
       <c r="O31">
-        <v>0.1828705893671315</v>
+        <v>0.1107622114451854</v>
       </c>
       <c r="P31">
-        <v>0.1828705893671316</v>
+        <v>0.1107622114451855</v>
       </c>
       <c r="Q31">
-        <v>419.2348199316223</v>
+        <v>467.7289479433978</v>
       </c>
       <c r="R31">
-        <v>3773.113379384601</v>
+        <v>4209.56053149058</v>
       </c>
       <c r="S31">
-        <v>0.02912635939971004</v>
+        <v>0.02589305041627996</v>
       </c>
       <c r="T31">
-        <v>0.02912635939971004</v>
+        <v>0.02589305041627997</v>
       </c>
     </row>
   </sheetData>
